--- a/Docs/curva ajuste chopp.xlsx
+++ b/Docs/curva ajuste chopp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\MarSidFla\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489818BA-90DB-4A55-A6CB-73711C61DE48}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D96793C-ABF3-48E0-A277-8AB3E286C425}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E44954D1-3171-42DA-906A-7CBAA2F6321C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="28">
   <si>
     <t>se</t>
   </si>
@@ -106,12 +106,18 @@
   </si>
   <si>
     <t>ajuste_fino_alto</t>
+  </si>
+  <si>
+    <t>para 1s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,6 +201,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1593,7 +1602,7 @@
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,7 +1773,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G6:G21" si="0">G5</f>
+        <f t="shared" ref="G7:G21" si="0">G5</f>
         <v>114</v>
       </c>
       <c r="H7" s="1">
@@ -1920,6 +1929,9 @@
       </c>
       <c r="H12" s="1"/>
       <c r="N12" s="7"/>
+      <c r="X12" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G13" s="1">
@@ -1964,9 +1976,9 @@
       <c r="U13" t="s">
         <v>24</v>
       </c>
-      <c r="X13">
-        <f>N13-T11-T11-1</f>
-        <v>101</v>
+      <c r="X13" s="8">
+        <f>T13/D6</f>
+        <v>51.818181818181813</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
